--- a/graph_generation/results_prelim/hermes_llama2/level_10/k_1.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_10/k_1.xlsx
@@ -31,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -48,39 +48,35 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node L, and then from node node L to node 15? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 2 0 0 0 0 0 0 0 0 0 0 4 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 3 0 0 5 0 0 0 0 0 0 2 0 0 0
- F 0 0 0 0 5 0 5 0 0 0 0 0 0 0 0 2
- G 0 0 0 0 0 5 0 2 0 1 2 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0
- M 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0
- N 4 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
- P 0 0 0 0 0 2 0 0 0 0 0 0 0 0 4 0
+What is the least cost path to travel first from node A to node I, and then from node node I to node O? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 1 2 4 0 0 0 0 0 0 0 0 0 5
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 4 0 0 0 5 0 0 0 0 2 0 0 0 0
+ F 0 0 0 0 5 0 5 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 5 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ K 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
+ O 0 5 0 0 0 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
-    <t>Path from A to L: A -&gt; C -&gt; E -&gt; M -&gt; L
-Path from L to P: L -&gt; M -&gt; E -&gt; F -&gt; P</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node 0 to node 15, we can use Dijkstra's algorithm. Here are the steps:
-1. Create a set of unvisited nodes and initialize the distance of the starting node (node 0) to 0 and the distance of all other nodes to infinity.
-2. Select the node with the smallest distance (node 0) and mark it as visited.
-3. Update the distances of its neighbors (nodes B, C, and D) by adding the distance of the current node to the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (node 15) is visited.
-Following these steps, we get the following sequence of nodes:
-Path from 0 to 15: 0 -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; 15
-The least cost path from node 0 to node 15 is: 0 -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; 15.</t>
+    <t>Path from A to I: A -&gt; B -&gt; E -&gt; F -&gt; I
+Path from I to O: I -&gt; F -&gt; E -&gt; B -&gt; O</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node I, and then from node node I to node O is:
+Path from A to I: A -&gt; G -&gt; H -&gt; I
+Path from I to O: I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O
+The sequences of nodes are:
+A -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O</t>
   </si>
   <si>
     <t>Wrong</t>
